--- a/data/trans_bre/CONS_ALER-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ALER-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>53,98%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>102,45%</t>
+          <t>163,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>55,19%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,81</t>
+          <t>-1,71; 2,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 3,19</t>
+          <t>0,48; 4,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 2,57</t>
+          <t>-0,2; 4,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 147,08</t>
+          <t>-41,52; 132,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 346,7</t>
+          <t>0,45; 611,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,26; 110,34</t>
+          <t>-6,31; 183,42</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>37,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,23%</t>
+          <t>162,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>28,77%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,15</t>
+          <t>0,06; 2,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 3,65</t>
+          <t>-0,11; 21,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,94</t>
+          <t>-0,18; 3,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 78,6</t>
+          <t>0,82; 93,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 103,56</t>
+          <t>-2,24; 909,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 73,47</t>
+          <t>-3,21; 76,27</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>72,75%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>130,05%</t>
+          <t>81,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>73,96%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 5,3</t>
+          <t>-1,23; 2,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,26</t>
+          <t>-0,29; 5,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,05</t>
+          <t>0,43; 5,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 189,23</t>
+          <t>-27,28; 96,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,49; 345,89</t>
+          <t>-11,6; 262,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 75,5</t>
+          <t>5,28; 189,4</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>43,63%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>53,04%</t>
+          <t>136,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,14%</t>
+          <t>42,02%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,13</t>
+          <t>0,12; 1,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,32</t>
+          <t>0,93; 17,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,61</t>
+          <t>0,63; 3,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,11; 80,19</t>
+          <t>3,2; 70,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,62; 111,77</t>
+          <t>25,17; 669,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 58,46</t>
+          <t>11,16; 79,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_ALER-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ALER-Estudios-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 2,63</t>
+          <t>-2,1; 2,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,63</t>
+          <t>0,22; 4,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 132,06</t>
+          <t>-42,46; 111,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 611,52</t>
+          <t>-3,86; 718,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>51,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,4</t>
+          <t>0,35; 2,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 21,6</t>
+          <t>-0,15; 22,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 93,95</t>
+          <t>9,49; 105,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 909,88</t>
+          <t>-3,17; 838,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,92%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 2,44</t>
+          <t>-1,58; 1,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 5,36</t>
+          <t>-0,15; 5,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,28; 96,54</t>
+          <t>-39,16; 70,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 262,58</t>
+          <t>-12,74; 279,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>32,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,9</t>
+          <t>0,17; 1,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 17,02</t>
+          <t>0,74; 14,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 70,81</t>
+          <t>4,75; 70,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,17; 669,82</t>
+          <t>18,43; 526,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_ALER-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ALER-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,48</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>175,14%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>55,19%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>12,72%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>163,94%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>55,19%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,37; 4,59</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 4,93</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-2,1; 2,79</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 4,53</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,2; 4,93</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>2,74; 745,2</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 183,42</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-42,46; 111,93</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-3,86; 718,47</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 183,42</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,41</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,57</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>35,9%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>28,77%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>51,52%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>162,36%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>28,77%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,36; 3,0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-0,18; 3,14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,35; 2,49</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 22,91</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,18; 3,14</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-8,36; 98,28</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 76,27</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>9,49; 105,21</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-3,17; 838,3</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-3,21; 76,27</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,19</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>55,74%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>73,96%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>6,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>81,17%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>73,96%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-0,9; 4,69</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,43; 5,38</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-1,58; 1,68</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 5,29</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 5,38</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-20,53; 194,47</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5,28; 189,4</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-39,16; 70,53</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-12,74; 279,29</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>5,28; 189,4</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,98</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,35</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>46,81%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>42,02%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>32,91%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>136,17%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>42,02%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,34; 2,87</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 3,2</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,17; 1,84</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 14,72</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 3,2</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>7,08; 99,89</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11,16; 79,71</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>4,75; 70,62</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>18,43; 526,89</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>11,16; 79,71</t>
         </is>
       </c>
     </row>
